--- a/data/output/tables/champion_models.xlsx
+++ b/data/output/tables/champion_models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>model</t>
   </si>
@@ -46,10 +46,16 @@
     <t>variacion</t>
   </si>
   <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>xgb</t>
+  </si>
+  <si>
     <t>lr</t>
   </si>
   <si>
-    <t>xgb</t>
+    <t>ar</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2052.214393768477</v>
+        <v>1236.523814543438</v>
       </c>
       <c r="D2">
-        <v>2513.108597020475</v>
+        <v>1107.532173969898</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -460,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2407.003495450783</v>
@@ -477,10 +483,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>235.1036593763999</v>
+        <v>3.344761563974863</v>
       </c>
       <c r="D5">
-        <v>3383.920983241372</v>
+        <v>2400.412913518478</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +494,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.2701928035102283</v>
+        <v>1112.350482220995</v>
       </c>
       <c r="D6">
-        <v>1522.486746418784</v>
+        <v>1023.853012298793</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +508,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>1255.879226075102</v>
+        <v>1097.805347418062</v>
       </c>
       <c r="D7">
-        <v>3105.390023382689</v>
+        <v>2806.963502959038</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/tables/champion_models.xlsx
+++ b/data/output/tables/champion_models.xlsx
@@ -46,16 +46,16 @@
     <t>variacion</t>
   </si>
   <si>
+    <t>arima</t>
+  </si>
+  <si>
     <t>rf</t>
   </si>
   <si>
-    <t>xgb</t>
+    <t>ar</t>
   </si>
   <si>
     <t>lr</t>
-  </si>
-  <si>
-    <t>ar</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1236.523814543438</v>
+        <v>633.9017213590852</v>
       </c>
       <c r="D2">
-        <v>1107.532173969898</v>
+        <v>1625.696012953259</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,10 +455,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>13.154549082672</v>
+        <v>1007.028452443161</v>
       </c>
       <c r="D3">
-        <v>2275.445492660668</v>
+        <v>1575.978803529021</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,10 +469,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2407.003495450783</v>
+        <v>3070.81207351412</v>
       </c>
       <c r="D4">
-        <v>15190.08447547815</v>
+        <v>2844.398149924758</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,10 +483,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3.344761563974863</v>
+        <v>2332.018456633828</v>
       </c>
       <c r="D5">
-        <v>2400.412913518478</v>
+        <v>3000.897455044406</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,10 +497,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1112.350482220995</v>
+        <v>1276.231126439565</v>
       </c>
       <c r="D6">
-        <v>1023.853012298793</v>
+        <v>1796.857510444471</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -508,13 +508,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1097.805347418062</v>
+        <v>1327.609586313175</v>
       </c>
       <c r="D7">
-        <v>2806.963502959038</v>
+        <v>3135.431325646427</v>
       </c>
     </row>
   </sheetData>
